--- a/analysis & research/JNI-CppEvent/Analysis.xlsx
+++ b/analysis & research/JNI-CppEvent/Analysis.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84918BB3-1D48-4777-B935-538364068CEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <sheet name="HMI Event调用" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -162,7 +161,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +181,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -210,7 +209,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,7 +219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +229,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,7 +274,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,7 +284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +303,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +331,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +381,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +392,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,7 +408,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +419,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,8 +478,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Event</t>
@@ -489,7 +488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,8 +499,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>m_keys</t>
@@ -516,7 +515,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -526,7 +525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,7 +535,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -546,7 +545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,7 +555,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,7 +565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -636,7 +635,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -646,7 +645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +665,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -676,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -686,7 +685,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -696,7 +695,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -706,7 +705,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -716,7 +715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +732,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -744,7 +743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,7 +754,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -766,7 +765,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -852,7 +851,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -862,7 +861,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -900,13 +899,394 @@
   </si>
   <si>
     <r>
-      <t>NavProxy::wptr wpNavProxy = NavProxy::wptr(</t>
+      <t xml:space="preserve">template &lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, class </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pQueue-&gt;registerForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TnRouteCalculationPercentageEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(wpNavProxy, &amp;NavProxy::processRespRouteCalculationPercentageEvent);</t>
+    </r>
+  </si>
+  <si>
+    <t>void NavProxy::processRespRouteCalculationPercentageEvent(TnRouteCalculationPercentageEvent::ptr const &amp;resp)</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_func(func), </t>
+  </si>
+  <si>
+    <t>m_wpHandler(wpHandler)</t>
+  </si>
+  <si>
+    <t>template&lt;class EventT, class T&gt;</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;EventT, T&gt;(obj, memberFunction, this));</t>
+  </si>
+  <si>
+    <r>
+      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; obj, void (T::*memberFunction)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&amp;))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; wpHandler, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*func)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
+    </r>
+  </si>
+  <si>
+    <t>EventT0</t>
+  </si>
+  <si>
+    <t>EventT1</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapter0</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapter1</t>
+  </si>
+  <si>
+    <t>std::string</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt;</t>
+  </si>
+  <si>
+    <t>m_handlers</t>
+  </si>
+  <si>
+    <t>m_eventListeners</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;void&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
+  </si>
+  <si>
+    <t>m_pQueue(pQueue) {</t>
+  </si>
+  <si>
+    <t>// used for supporting broadcastEventToQueue</t>
+  </si>
+  <si>
+    <t>template &lt;class EventT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void subscribe( boost::function&lt;void(const EventT&amp;)&gt; handler, void* tag = NULL ) { </t>
+  </si>
+  <si>
+    <t>assert( handler &amp;&amp; "Event handler must not be an empty function" );</t>
+  </si>
+  <si>
+    <t>unique_lock&lt;mutex&gt; lock(subscribers_mutex);</t>
+  </si>
+  <si>
+    <t>boost::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = boost::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
+  </si>
+  <si>
+    <t>s-&gt;handler = handler;</t>
+  </si>
+  <si>
+    <t>s-&gt;tag = tag;</t>
+  </si>
+  <si>
+    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template&lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventT&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;EventT&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <t>EventListener0</t>
+  </si>
+  <si>
+    <t>EventListener1</t>
+  </si>
+  <si>
+    <t>使用智能指针时，如果需要进行类层次上的上下行转换时，可以使用boost::static_pointer_cast和boost::dynamic_pointer_cast</t>
+  </si>
+  <si>
+    <t>m_events</t>
+  </si>
+  <si>
+    <t>void LoganPluginCore::Run()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>//Call Run Function (will quit when quit event is received)</t>
+  </si>
+  <si>
+    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
+  </si>
+  <si>
+    <t>MSG msg;</t>
+  </si>
+  <si>
+    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
+  </si>
+  <si>
+    <t>DispatchMessage(&amp;msg);</t>
+  </si>
+  <si>
+    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
+  </si>
+  <si>
+    <t>bool TnEventQueue::run() {</t>
+  </si>
+  <si>
+    <t>while(!m_isCanceled) {</t>
+  </si>
+  <si>
+    <t>ProcessEvents(0);</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <r>
+      <t>NavProxy::wptr wpNavProxy = NavProxy::wptr(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -916,417 +1296,37 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>);</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pQueue-&gt;registerForEvent&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TnRouteCalculationPercentageEvent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(wpNavProxy, &amp;NavProxy::processRespRouteCalculationPercentageEvent);</t>
-    </r>
-  </si>
-  <si>
-    <t>void NavProxy::processRespRouteCalculationPercentageEvent(TnRouteCalculationPercentageEvent::ptr const &amp;resp)</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_func(func), </t>
-  </si>
-  <si>
-    <t>m_wpHandler(wpHandler)</t>
-  </si>
-  <si>
-    <t>template&lt;class EventT, class T&gt;</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;EventT, T&gt;(obj, memberFunction, this));</t>
-  </si>
-  <si>
-    <r>
-      <t>bool registerForEvent(TnWeakPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; obj, void (T::*memberFunction)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&amp;))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; wpHandler, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*func)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
-    </r>
-  </si>
-  <si>
-    <t>EventT0</t>
-  </si>
-  <si>
-    <t>EventT1</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter0</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter1</t>
-  </si>
-  <si>
-    <t>std::string</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt;</t>
-  </si>
-  <si>
-    <t>m_handlers</t>
-  </si>
-  <si>
-    <t>m_eventListeners</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;void&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
-  </si>
-  <si>
-    <t>m_pQueue(pQueue) {</t>
-  </si>
-  <si>
-    <t>// used for supporting broadcastEventToQueue</t>
-  </si>
-  <si>
-    <t>template &lt;class EventT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void subscribe( boost::function&lt;void(const EventT&amp;)&gt; handler, void* tag = NULL ) { </t>
-  </si>
-  <si>
-    <t>assert( handler &amp;&amp; "Event handler must not be an empty function" );</t>
-  </si>
-  <si>
-    <t>unique_lock&lt;mutex&gt; lock(subscribers_mutex);</t>
-  </si>
-  <si>
-    <t>boost::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = boost::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
-  </si>
-  <si>
-    <t>s-&gt;handler = handler;</t>
-  </si>
-  <si>
-    <t>s-&gt;tag = tag;</t>
-  </si>
-  <si>
-    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template&lt;class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventT&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;EventT&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <t>EventListener0</t>
-  </si>
-  <si>
-    <t>EventListener1</t>
-  </si>
-  <si>
-    <t>使用智能指针时，如果需要进行类层次上的上下行转换时，可以使用boost::static_pointer_cast和boost::dynamic_pointer_cast</t>
-  </si>
-  <si>
-    <t>m_events</t>
-  </si>
-  <si>
-    <t>void LoganPluginCore::Run()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>//Call Run Function (will quit when quit event is received)</t>
-  </si>
-  <si>
-    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
-  </si>
-  <si>
-    <t>MSG msg;</t>
-  </si>
-  <si>
-    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
-  </si>
-  <si>
-    <t>DispatchMessage(&amp;msg);</t>
-  </si>
-  <si>
-    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
-  </si>
-  <si>
-    <t>bool TnEventQueue::run() {</t>
-  </si>
-  <si>
-    <t>while(!m_isCanceled) {</t>
-  </si>
-  <si>
-    <t>ProcessEvents(0);</t>
-  </si>
-  <si>
-    <t>return true;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1334,7 +1334,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1342,21 +1342,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1364,21 +1364,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1386,14 +1386,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1401,28 +1401,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2229,10 +2229,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2264,7 +2332,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2406,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2480,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2554,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2628,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2689,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2742,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2795,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2848,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2901,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2954,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +3007,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +3060,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3113,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3166,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3219,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3272,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3352,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3427,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3480,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3540,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3600,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,7 +3653,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3713,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3773,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3831,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3892,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3885,7 +3953,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +4006,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +4059,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4044,7 +4112,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4165,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4150,7 +4218,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4271,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +4324,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4309,7 +4377,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4430,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4483,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4536,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4521,7 +4589,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,7 +4642,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4627,7 +4695,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4748,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4801,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +4870,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921BC473-6720-41EF-ACF7-B9258C144252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{921BC473-6720-41EF-ACF7-B9258C144252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4811,10 +4879,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4834,7 +4902,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4863,7 +4931,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC0FF07-20B3-483A-8B2D-4F19603AAA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BC0FF07-20B3-483A-8B2D-4F19603AAA91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4984,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34691D4F-1076-41E8-9828-D0BBB8EF9EFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34691D4F-1076-41E8-9828-D0BBB8EF9EFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4969,7 +5037,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323A11EB-C53C-4F80-82A7-9D6D0077F70A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323A11EB-C53C-4F80-82A7-9D6D0077F70A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5022,7 +5090,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A99077-2B43-4B3F-9244-0FD569A57458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A99077-2B43-4B3F-9244-0FD569A57458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5075,7 +5143,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276D1B9A-3EEE-4AD2-A9B1-9DBF950C4F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276D1B9A-3EEE-4AD2-A9B1-9DBF950C4F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5128,7 +5196,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CDD7A3-DBE1-4036-BF00-7CB930A380FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05CDD7A3-DBE1-4036-BF00-7CB930A380FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5181,7 +5249,7 @@
         <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154F55F8-D64E-4F9A-B4E3-57A2FD5D7989}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{154F55F8-D64E-4F9A-B4E3-57A2FD5D7989}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,7 +5302,7 @@
         <xdr:cNvPr id="43" name="Arrow: Down 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641AABB8-487B-47A4-A499-F5074503539C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641AABB8-487B-47A4-A499-F5074503539C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5294,7 +5362,7 @@
         <xdr:cNvPr id="47" name="Arrow: Down 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16869762-F3D4-444B-A6B5-2FCEDA47C949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16869762-F3D4-444B-A6B5-2FCEDA47C949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5347,7 +5415,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5594,26 +5662,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -5776,7 +5844,7 @@
       </c>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="3:22" ht="15" thickBot="1">
+    <row r="19" spans="3:22" ht="14.25" thickBot="1">
       <c r="C19" s="1"/>
       <c r="G19" s="10"/>
       <c r="H19" s="19"/>
@@ -5889,7 +5957,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="3:22" ht="15" thickBot="1">
+    <row r="24" spans="3:22" ht="14.25" thickBot="1">
       <c r="C24" s="1"/>
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
@@ -6038,7 +6106,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="5:21" ht="15" thickBot="1">
+    <row r="33" spans="5:21" ht="14.25" thickBot="1">
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -6144,7 +6212,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="5:21" ht="15" thickBot="1">
+    <row r="38" spans="5:21" ht="14.25" thickBot="1">
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -6162,7 +6230,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="43" spans="5:21" ht="15" hidden="1" thickBot="1"/>
+    <row r="43" spans="5:21" ht="14.25" hidden="1" thickBot="1"/>
     <row r="44" spans="5:21" hidden="1">
       <c r="F44" s="79" t="s">
         <v>67</v>
@@ -6201,7 +6269,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="82"/>
     </row>
-    <row r="50" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="50" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F50" s="81"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -6271,7 +6339,7 @@
       <c r="K57" s="81"/>
       <c r="L57" s="96"/>
     </row>
-    <row r="58" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F58" s="83"/>
       <c r="G58" s="94"/>
       <c r="H58" s="83"/>
@@ -6314,20 +6382,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AB80"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" customWidth="1"/>
-    <col min="19" max="19" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -6763,7 +6831,7 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
     </row>
-    <row r="40" spans="4:28" ht="15" thickBot="1">
+    <row r="40" spans="4:28" ht="14.25" thickBot="1">
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -6774,7 +6842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:28" ht="15" thickBot="1">
+    <row r="41" spans="4:28" ht="14.25" thickBot="1">
       <c r="O41" s="73"/>
       <c r="P41" s="74" t="s">
         <v>64</v>
@@ -6792,7 +6860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:28" ht="15" thickBot="1"/>
+    <row r="42" spans="4:28" ht="14.25" thickBot="1"/>
     <row r="43" spans="4:28">
       <c r="P43" t="s">
         <v>54</v>
@@ -6808,13 +6876,13 @@
       </c>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="4:28" ht="15" thickBot="1">
+    <row r="45" spans="4:28" ht="14.25" thickBot="1">
       <c r="Q45" s="88" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="89"/>
     </row>
-    <row r="47" spans="4:28" ht="15" thickBot="1">
+    <row r="47" spans="4:28" ht="14.25" thickBot="1">
       <c r="F47" t="s">
         <v>90</v>
       </c>
@@ -6856,7 +6924,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="64"/>
     </row>
-    <row r="51" spans="4:21" ht="15" thickBot="1">
+    <row r="51" spans="4:21" ht="14.25" thickBot="1">
       <c r="P51" s="65"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="67"/>
@@ -7008,7 +7076,7 @@
       <c r="R68" s="81"/>
       <c r="T68" s="82"/>
     </row>
-    <row r="69" spans="4:23" ht="15" thickBot="1">
+    <row r="69" spans="4:23" ht="14.25" thickBot="1">
       <c r="D69" s="106"/>
       <c r="E69" s="106" t="s">
         <v>59</v>
@@ -7032,7 +7100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="4:23" ht="15" thickBot="1">
+    <row r="70" spans="4:23" ht="14.25" thickBot="1">
       <c r="D70" s="114" t="s">
         <v>58</v>
       </c>
@@ -7236,18 +7304,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF00E54-7E76-42E3-9E4D-458C7D7154B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AE49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:31">
       <c r="P3" s="124" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="124"/>
       <c r="R3" s="124"/>
@@ -7256,7 +7324,7 @@
       <c r="U3" s="124"/>
       <c r="V3" s="124"/>
       <c r="X3" s="124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="124"/>
       <c r="Z3" s="124"/>
@@ -7268,7 +7336,7 @@
     </row>
     <row r="4" spans="2:31">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T4" s="125"/>
       <c r="U4" s="125"/>
@@ -7281,10 +7349,10 @@
     </row>
     <row r="5" spans="2:31">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P5" s="124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="124"/>
       <c r="R5" s="124"/>
@@ -7302,15 +7370,15 @@
     </row>
     <row r="7" spans="2:31">
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:31">
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P8" s="124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="124"/>
       <c r="R8" s="124"/>
@@ -7328,82 +7396,82 @@
     </row>
     <row r="9" spans="2:31">
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:31">
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:31">
       <c r="D11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" ht="14.25" thickBot="1">
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="3:28">
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V23" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="W23" s="127" t="s">
         <v>126</v>
-      </c>
-      <c r="W23" s="127" t="s">
-        <v>127</v>
       </c>
       <c r="X23" s="128"/>
       <c r="Y23" s="129"/>
       <c r="Z23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:28">
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V24" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W24" s="131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X24" s="132"/>
       <c r="Y24" s="133"/>
     </row>
     <row r="25" spans="3:28">
       <c r="D25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V25" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W25" s="131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X25" s="132"/>
       <c r="Y25" s="133"/>
     </row>
-    <row r="26" spans="3:28" ht="15" thickBot="1">
+    <row r="26" spans="3:28" ht="14.25" thickBot="1">
       <c r="D26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V26" s="134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X26" s="139"/>
       <c r="Y26" s="140"/>
     </row>
     <row r="27" spans="3:28">
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V27" s="92"/>
       <c r="W27" s="92"/>
@@ -7415,42 +7483,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:28" ht="15" thickBot="1">
+    <row r="29" spans="3:28" ht="14.25" thickBot="1">
       <c r="D29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="3:28">
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T30" s="120"/>
       <c r="U30" s="120"/>
       <c r="V30" s="126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W30" s="127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X30" s="128"/>
       <c r="Y30" s="129"/>
       <c r="Z30" s="120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA30" s="120"/>
       <c r="AB30" s="120"/>
     </row>
     <row r="31" spans="3:28">
       <c r="E31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T31" s="120"/>
       <c r="U31" s="120"/>
       <c r="V31" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W31" s="131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X31" s="132"/>
       <c r="Y31" s="133"/>
@@ -7460,15 +7528,15 @@
     </row>
     <row r="32" spans="3:28">
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T32" s="120"/>
       <c r="U32" s="120"/>
       <c r="V32" s="130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W32" s="131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X32" s="132"/>
       <c r="Y32" s="133"/>
@@ -7476,9 +7544,9 @@
       <c r="AA32" s="120"/>
       <c r="AB32" s="120"/>
     </row>
-    <row r="33" spans="4:28" ht="15" thickBot="1">
+    <row r="33" spans="4:28" ht="14.25" thickBot="1">
       <c r="E33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T33" s="120"/>
       <c r="U33" s="120"/>
@@ -7492,7 +7560,7 @@
     </row>
     <row r="34" spans="4:28">
       <c r="E34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T34" s="120"/>
       <c r="U34" s="120"/>
@@ -7504,25 +7572,25 @@
       <c r="AA34" s="120"/>
       <c r="AB34" s="120"/>
     </row>
-    <row r="35" spans="4:28" ht="15" thickBot="1">
+    <row r="35" spans="4:28" ht="14.25" thickBot="1">
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="4:28">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V36" s="126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W36" s="127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X36" s="128"/>
       <c r="Y36" s="129"/>
       <c r="Z36" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA36" s="120"/>
     </row>
@@ -7531,10 +7599,10 @@
         <v>14</v>
       </c>
       <c r="V37" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W37" s="131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X37" s="132"/>
       <c r="Y37" s="133"/>
@@ -7543,17 +7611,17 @@
     </row>
     <row r="38" spans="4:28">
       <c r="V38" s="130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W38" s="131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X38" s="132"/>
       <c r="Y38" s="133"/>
       <c r="Z38" s="120"/>
       <c r="AA38" s="120"/>
     </row>
-    <row r="39" spans="4:28" ht="15" thickBot="1">
+    <row r="39" spans="4:28" ht="14.25" thickBot="1">
       <c r="V39" s="134"/>
       <c r="W39" s="135"/>
       <c r="X39" s="136"/>
@@ -7563,10 +7631,11 @@
     </row>
     <row r="49" spans="18:18">
       <c r="R49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7574,73 +7643,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7754FD7-EB22-45A5-83A3-D06171DD59DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D7:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="F24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="4:6">
@@ -7650,7 +7719,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="E26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -7659,6 +7728,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>